--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="RequestPayments" sheetId="1" r:id="rId1"/>
     <sheet name="GetPaymentDetails" sheetId="2" r:id="rId2"/>
-    <sheet name="PC config" sheetId="3" r:id="rId3"/>
+    <sheet name="Read payment details" sheetId="4" r:id="rId3"/>
+    <sheet name="PC config" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>requests</t>
   </si>
@@ -59,6 +60,21 @@
   </si>
   <si>
     <t>64-bit OS, x64-based processor</t>
+  </si>
+  <si>
+    <t>Clients</t>
+  </si>
+  <si>
+    <t>Payments</t>
+  </si>
+  <si>
+    <t>Time (sec)</t>
+  </si>
+  <si>
+    <t>spr (ms)</t>
+  </si>
+  <si>
+    <t>An established connection was aborted by the software in your host machine</t>
   </si>
 </sst>
 </file>
@@ -381,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,6 +455,112 @@
         <v>3108.0997078386276</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1000</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" ref="C4:C13" si="0">B4/A4*1000*1000</f>
+        <v>13000</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D13" si="1">A4/B4</f>
+        <v>76.92307692307692</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D5" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D6" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D7" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D8" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D9" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D10" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D11" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D12" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D13" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -450,7 +572,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,9 +635,76 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>500</v>
+      </c>
+      <c r="B2">
+        <v>85</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <f>A2*B2/C2</f>
+        <v>3269.2307692307691</v>
+      </c>
+      <c r="E2">
+        <f>C2/B2/A2*1000</f>
+        <v>0.30588235294117649</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1000</v>
+      </c>
+      <c r="B3">
+        <v>236</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>

--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="RequestPayments" sheetId="1" r:id="rId1"/>
     <sheet name="GetPaymentDetails" sheetId="2" r:id="rId2"/>
     <sheet name="Read payment details" sheetId="4" r:id="rId3"/>
-    <sheet name="PC config" sheetId="3" r:id="rId4"/>
+    <sheet name="Read payment details - 2" sheetId="5" r:id="rId4"/>
+    <sheet name="PC config" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>requests</t>
   </si>
@@ -75,6 +76,15 @@
   </si>
   <si>
     <t>An established connection was aborted by the software in your host machine</t>
+  </si>
+  <si>
+    <t>Parallel calls</t>
+  </si>
+  <si>
+    <t>When Kestrel max concurrent connections =1000</t>
+  </si>
+  <si>
+    <t>Kestrel: Connection id "0HLNTNNE6J3M2" rejected because the maximum number of concurrent connections has been reached.</t>
   </si>
 </sst>
 </file>
@@ -399,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A28" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,15 +470,15 @@
         <v>1000</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>11.331</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ref="C4:C13" si="0">B4/A4*1000*1000</f>
-        <v>13000</v>
+        <v>11331</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ref="D4:D13" si="1">A4/B4</f>
-        <v>76.92307692307692</v>
+        <v>88.253463948459981</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -572,7 +582,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,20 +645,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="2" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -656,16 +666,19 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>500</v>
       </c>
@@ -673,26 +686,235 @@
         <v>85</v>
       </c>
       <c r="C2">
+        <f>A2*B2</f>
+        <v>42500</v>
+      </c>
+      <c r="D2">
         <v>13</v>
       </c>
-      <c r="D2">
-        <f>A2*B2/C2</f>
+      <c r="E2">
+        <f>A2*B2/D2</f>
         <v>3269.2307692307691</v>
       </c>
-      <c r="E2">
-        <f>C2/B2/A2*1000</f>
+      <c r="F2">
+        <f>D2/B2/A2*1000</f>
         <v>0.30588235294117649</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>329</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C10" si="0">A3*B3</f>
+        <v>329</v>
+      </c>
+      <c r="D3">
+        <v>0.496</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E7" si="1">A3*B3/D3</f>
+        <v>663.30645161290317</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F7" si="2">D3/B3/A3*1000</f>
+        <v>1.5075987841945289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>329</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>3290</v>
+      </c>
+      <c r="D4">
+        <v>1.276</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>2578.3699059561127</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>0.38784194528875376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>1330</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>13300</v>
+      </c>
+      <c r="D5">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>3114.7540983606559</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>0.32105263157894737</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>1330</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>26600</v>
+      </c>
+      <c r="D6">
+        <v>10.35</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>2570.0483091787441</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>0.38909774436090222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>1330</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>66500</v>
+      </c>
+      <c r="D7">
+        <v>24.963999999999999</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>2663.8359237301715</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>0.37539849624060151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8">
+        <v>1330</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>133000</v>
+      </c>
+      <c r="E8" t="e">
+        <f t="shared" ref="E8:E10" si="3">A8*B8/D8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F10" si="4">D8/B8/A8*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>1330</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>93100</v>
+      </c>
+      <c r="E9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>2070</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>72450</v>
+      </c>
+      <c r="D10">
+        <v>23.206</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>3122.0374041196242</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="4"/>
+        <v>0.32030365769496205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>1000</v>
       </c>
-      <c r="B3">
+      <c r="B13">
         <v>236</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E13" t="e">
+        <f>A13*B13/D13</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F13">
+        <f>D13/B13/A13*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -701,6 +923,68 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>500</v>
+      </c>
+      <c r="B2">
+        <v>2070</v>
+      </c>
+      <c r="C2">
+        <f>A2*B2</f>
+        <v>1035000</v>
+      </c>
+      <c r="D2">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <f>A2*B2/D2</f>
+        <v>79615.38461538461</v>
+      </c>
+      <c r="F2">
+        <f>D2/B2/A2*1000</f>
+        <v>1.2560386473429951E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C5"/>
   <sheetViews>

--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RequestPayments" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -582,7 +582,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -924,10 +924,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,6 +977,29 @@
       <c r="F2">
         <f>D2/B2/A2*1000</f>
         <v>1.2560386473429951E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>500</v>
+      </c>
+      <c r="B3">
+        <v>800</v>
+      </c>
+      <c r="C3">
+        <f>A3*B3</f>
+        <v>400000</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <f>A3*B3/D3</f>
+        <v>100000</v>
+      </c>
+      <c r="F3">
+        <f>D3/B3/A3*1000</f>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>

--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="RequestPayments" sheetId="1" r:id="rId1"/>
-    <sheet name="GetPaymentDetails" sheetId="2" r:id="rId2"/>
+    <sheet name="GetPaymentDetails" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="Read payment details" sheetId="4" r:id="rId3"/>
-    <sheet name="Read payment details - 2" sheetId="5" r:id="rId4"/>
+    <sheet name="Read payment details - 2" sheetId="5" state="hidden" r:id="rId4"/>
     <sheet name="PC config" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>requests</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>Parallel calls</t>
-  </si>
-  <si>
-    <t>When Kestrel max concurrent connections =1000</t>
   </si>
   <si>
     <t>Kestrel: Connection id "0HLNTNNE6J3M2" rejected because the maximum number of concurrent connections has been reached.</t>
@@ -407,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,110 +463,31 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1000</v>
-      </c>
-      <c r="B4">
-        <v>11.331</v>
-      </c>
-      <c r="C4" s="2">
-        <f t="shared" ref="C4:C13" si="0">B4/A4*1000*1000</f>
-        <v>11331</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" ref="D4:D13" si="1">A4/B4</f>
-        <v>88.253463948459981</v>
-      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D5" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D6" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D7" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D8" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D9" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D10" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D11" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D12" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="2" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D13" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="D12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -645,10 +563,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -883,38 +801,6 @@
       <c r="F10">
         <f t="shared" si="4"/>
         <v>0.32030365769496205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>50</v>
-      </c>
-      <c r="B11">
-        <v>2070</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1000</v>
-      </c>
-      <c r="B13">
-        <v>236</v>
-      </c>
-      <c r="E13" t="e">
-        <f>A13*B13/D13</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13">
-        <f>D13/B13/A13*1000</f>
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -926,7 +812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>

--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="RequestPayments" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>requests</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>Kestrel: Connection id "0HLNTNNE6J3M2" rejected because the maximum number of concurrent connections has been reached.</t>
+  </si>
+  <si>
+    <t>Parallel requests</t>
+  </si>
+  <si>
+    <t>4 cores assigned to Visual studio, 4 Cores assigned to Test run engine Ncrunch</t>
   </si>
 </sst>
 </file>
@@ -407,18 +413,19 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -565,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,48 +605,48 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>85</v>
+        <v>329</v>
       </c>
       <c r="C2">
         <f>A2*B2</f>
-        <v>42500</v>
+        <v>329</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>0.496</v>
       </c>
       <c r="E2">
         <f>A2*B2/D2</f>
-        <v>3269.2307692307691</v>
+        <v>663.30645161290317</v>
       </c>
       <c r="F2">
         <f>D2/B2/A2*1000</f>
-        <v>0.30588235294117649</v>
+        <v>1.5075987841945289</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>329</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C10" si="0">A3*B3</f>
-        <v>329</v>
+        <f>A3*B3</f>
+        <v>3290</v>
       </c>
       <c r="D3">
-        <v>0.496</v>
+        <v>1.276</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E7" si="1">A3*B3/D3</f>
-        <v>663.30645161290317</v>
+        <f>A3*B3/D3</f>
+        <v>2578.3699059561127</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F7" si="2">D3/B3/A3*1000</f>
-        <v>1.5075987841945289</v>
+        <f>D3/B3/A3*1000</f>
+        <v>0.38784194528875376</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -647,68 +654,68 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>329</v>
+        <v>1330</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
-        <v>3290</v>
+        <f>A4*B4</f>
+        <v>13300</v>
       </c>
       <c r="D4">
-        <v>1.276</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
-        <v>2578.3699059561127</v>
+        <f>A4*B4/D4</f>
+        <v>3114.7540983606559</v>
       </c>
       <c r="F4">
-        <f t="shared" si="2"/>
-        <v>0.38784194528875376</v>
+        <f>D4/B4/A4*1000</f>
+        <v>0.32105263157894737</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>1330</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>13300</v>
+        <f>A5*B5</f>
+        <v>26600</v>
       </c>
       <c r="D5">
-        <v>4.2699999999999996</v>
+        <v>10.35</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
-        <v>3114.7540983606559</v>
+        <f>A5*B5/D5</f>
+        <v>2570.0483091787441</v>
       </c>
       <c r="F5">
-        <f t="shared" si="2"/>
-        <v>0.32105263157894737</v>
+        <f>D5/B5/A5*1000</f>
+        <v>0.38909774436090222</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="B6">
-        <v>1330</v>
+        <v>85</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>26600</v>
+        <f>A6*B6</f>
+        <v>42500</v>
       </c>
       <c r="D6">
-        <v>10.35</v>
+        <v>13</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
-        <v>2570.0483091787441</v>
+        <f>A6*B6/D6</f>
+        <v>3269.2307692307691</v>
       </c>
       <c r="F6">
-        <f t="shared" si="2"/>
-        <v>0.38909774436090222</v>
+        <f>D6/B6/A6*1000</f>
+        <v>0.30588235294117649</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -719,42 +726,42 @@
         <v>1330</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
+        <f>A7*B7</f>
         <v>66500</v>
       </c>
       <c r="D7">
         <v>24.963999999999999</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f>A7*B7/D7</f>
         <v>2663.8359237301715</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
+        <f>D7/B7/A7*1000</f>
         <v>0.37539849624060151</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="B8">
-        <v>1330</v>
+        <v>2070</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
-        <v>133000</v>
-      </c>
-      <c r="E8" t="e">
-        <f t="shared" ref="E8:E10" si="3">A8*B8/D8</f>
-        <v>#DIV/0!</v>
+        <f>A8*B8</f>
+        <v>72450</v>
+      </c>
+      <c r="D8">
+        <v>23.206</v>
+      </c>
+      <c r="E8">
+        <f>A8*B8/D8</f>
+        <v>3122.0374041196242</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8:F10" si="4">D8/B8/A8*1000</f>
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
+        <f>D8/B8/A8*1000</f>
+        <v>0.32030365769496205</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -765,15 +772,15 @@
         <v>1330</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f>A9*B9</f>
         <v>93100</v>
       </c>
       <c r="E9" t="e">
-        <f t="shared" si="3"/>
+        <f>A9*B9/D9</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F9">
-        <f t="shared" si="4"/>
+        <f>D9/B9/A9*1000</f>
         <v>0</v>
       </c>
       <c r="G9" t="s">
@@ -782,28 +789,31 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="B10">
-        <v>2070</v>
+        <v>1330</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>72450</v>
-      </c>
-      <c r="D10">
-        <v>23.206</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="3"/>
-        <v>3122.0374041196242</v>
+        <f>A10*B10</f>
+        <v>133000</v>
+      </c>
+      <c r="E10" t="e">
+        <f>A10*B10/D10</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F10">
-        <f t="shared" si="4"/>
-        <v>0.32030365769496205</v>
+        <f>D10/B10/A10*1000</f>
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:G10">
+    <sortCondition ref="C2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -895,19 +905,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C5"/>
+  <dimension ref="A3:D5"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -917,8 +927,11 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -926,7 +939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
